--- a/doc/Variable_Dimension.xlsx
+++ b/doc/Variable_Dimension.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12780" yWindow="0" windowWidth="12860" windowHeight="16500" tabRatio="500"/>
+    <workbookView xWindow="540" yWindow="2800" windowWidth="12200" windowHeight="15060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>Variable Name</t>
   </si>
@@ -43,12 +43,6 @@
   </si>
   <si>
     <t>Ocean Heat Content Anomaly within 2000 m Depth</t>
-  </si>
-  <si>
-    <t>Specific Humidity</t>
-  </si>
-  <si>
-    <t>Air Temperature</t>
   </si>
   <si>
     <t>Total Cloud Fraction</t>
@@ -133,7 +127,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +138,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -172,15 +182,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -510,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -531,34 +549,34 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -566,7 +584,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -574,7 +592,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -582,7 +600,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -590,7 +608,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -598,7 +616,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -606,7 +624,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -614,7 +632,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -622,195 +640,156 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>25</v>
-      </c>
-      <c r="B32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
